--- a/mixs-templates/MimarksC_plus_combinations/MimarksCHostAssociated.xlsx
+++ b/mixs-templates/MimarksC_plus_combinations/MimarksCHostAssociated.xlsx
@@ -834,7 +834,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="7">
+  <dataValidations count="8">
     <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"aerobe,anaerobe,facultative,microaerophilic,microanaerobe,obligate aerobe,obligate anaerobe"</formula1>
     </dataValidation>
@@ -846,6 +846,9 @@
     </dataValidation>
     <dataValidation sqref="S2:S1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DNA-free PCR mix,distilled water,empty collection device,empty collection tube,phosphate buffer,sterile swab,sterile syringe"</formula1>
+    </dataValidation>
+    <dataValidation sqref="AO2:AO1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"breeder's line,clonal selection,hybrid,inbred line,mutant,natural,semi-natural,wild"</formula1>
     </dataValidation>
     <dataValidation sqref="AR2:AR1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"active surveillance in response to an outbreak,active surveillance not initiated by an outbreak,farm sample,market sample,other"</formula1>
